--- a/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_6_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_6_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177832</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177832</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647583070.161899</v>
+        <v>62581087.82270409</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +673,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E2" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F2" t="n">
         <v>404.8896287080119</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -758,10 +758,10 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H3" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
         <v>108.929687778141</v>
@@ -916,7 +916,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
         <v>347.8590406130752</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C8" t="n">
         <v>449.4745782429939</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E14" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F14" t="n">
         <v>404.8896287080119</v>
@@ -1681,7 +1681,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y14" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="15">
@@ -1858,7 +1858,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E17" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F17" t="n">
         <v>404.8896287080119</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S18" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T18" t="n">
         <v>392.6911708778912</v>
@@ -2025,49 +2025,49 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S21" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S24" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2623,10 +2623,10 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W26" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879694</v>
       </c>
       <c r="X26" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y26" t="n">
         <v>511.3174326828064</v>
@@ -2809,7 +2809,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F29" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G29" t="n">
         <v>397.8840054528454</v>
@@ -2857,7 +2857,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W29" t="n">
         <v>638.3734759809475</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2991,19 +2991,19 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>67.808644398718</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C32" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D32" t="n">
         <v>410.3391557398498</v>
@@ -3046,7 +3046,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F32" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G32" t="n">
         <v>397.8840054528454</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S33" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.40414414470841</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C35" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D35" t="n">
         <v>410.3391557398498</v>
@@ -3337,7 +3337,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X35" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y35" t="n">
         <v>511.3174326828064</v>
@@ -3447,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I37" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C38" t="n">
         <v>449.4745782429939</v>
@@ -3517,7 +3517,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E38" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F38" t="n">
         <v>404.8896287080119</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S39" t="n">
         <v>408.192915058951</v>
@@ -3650,7 +3650,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W39" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X39" t="n">
         <v>419.8627394453875</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.56516074743381</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V44" t="n">
         <v>629.8510241668239</v>
@@ -4051,7 +4051,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="45">
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
         <v>1303.215227044376</v>
@@ -4336,25 +4336,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K2" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L2" t="n">
-        <v>2819.17922466306</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M2" t="n">
-        <v>3301.358424176563</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N2" t="n">
-        <v>3866.401488049235</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O2" t="n">
-        <v>4776.556370989979</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q2" t="n">
         <v>6931.116362236997</v>
@@ -4363,25 +4363,25 @@
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H3" t="n">
         <v>250.9899876546879</v>
@@ -4494,22 +4494,22 @@
         <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>409.2181261040298</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6131206966359</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="O4" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104935</v>
@@ -4549,19 +4549,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
         <v>492.3327682960356</v>
@@ -4576,13 +4576,13 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>2124.71495243113</v>
+        <v>1677.76186642996</v>
       </c>
       <c r="L5" t="n">
-        <v>3681.051378010443</v>
+        <v>2595.354589746543</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523946</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N5" t="n">
         <v>4728.273641396618</v>
@@ -4600,25 +4600,25 @@
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="6">
@@ -4707,40 +4707,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="C7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
         <v>457.4949902104935</v>
@@ -4810,10 +4810,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K8" t="n">
-        <v>1901.586501346477</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L8" t="n">
         <v>2819.17922466306</v>
@@ -4837,25 +4837,25 @@
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4944,46 +4944,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="C10" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="D10" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="E10" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="F10" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="H10" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="I10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5013,7 +5013,7 @@
         <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="11">
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5053,19 +5053,19 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L11" t="n">
-        <v>2819.17922466306</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M11" t="n">
-        <v>3301.358424176563</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N11" t="n">
-        <v>3866.401488049235</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O11" t="n">
-        <v>4776.556370989979</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q11" t="n">
         <v>6931.116362236997</v>
@@ -5074,25 +5074,25 @@
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5241,16 +5241,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
         <v>1303.215227044376</v>
@@ -5287,16 +5287,16 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L14" t="n">
-        <v>3681.051378010443</v>
+        <v>2846.826260951187</v>
       </c>
       <c r="M14" t="n">
-        <v>4163.230577523946</v>
+        <v>3329.005460464689</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396618</v>
+        <v>3894.048524337361</v>
       </c>
       <c r="O14" t="n">
         <v>5638.428524337362</v>
@@ -5329,7 +5329,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5506,43 +5506,43 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>210.3162975291112</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154225</v>
+        <v>669.1334430047632</v>
       </c>
       <c r="K17" t="n">
-        <v>2124.71495243113</v>
+        <v>1408.776586572602</v>
       </c>
       <c r="L17" t="n">
-        <v>3681.051378010443</v>
+        <v>2326.369309889185</v>
       </c>
       <c r="M17" t="n">
-        <v>4163.230577523946</v>
+        <v>2808.548509402688</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396618</v>
+        <v>3373.59157327536</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337362</v>
+        <v>4283.746456216104</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
@@ -5624,7 +5624,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S18" t="n">
         <v>5159.222422432123</v>
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5715,16 +5715,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5761,25 +5761,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K20" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L20" t="n">
-        <v>3681.051378010443</v>
+        <v>3159.388586083262</v>
       </c>
       <c r="M20" t="n">
-        <v>4163.230577523946</v>
+        <v>3641.567785596765</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396618</v>
+        <v>4206.610849469437</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337362</v>
+        <v>5116.765732410181</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434775</v>
+        <v>5952.633060507595</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>7019.147122846694</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -5995,22 +5995,22 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K23" t="n">
-        <v>1415.008586083262</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L23" t="n">
-        <v>2332.601309399844</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M23" t="n">
-        <v>2814.780508913348</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N23" t="n">
-        <v>3379.82357278602</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O23" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P23" t="n">
         <v>6474.295852434775</v>
@@ -6022,25 +6022,25 @@
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6238,19 +6238,19 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L26" t="n">
-        <v>3071.357825473565</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M26" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N26" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O26" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P26" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q26" t="n">
         <v>6931.116362236997</v>
@@ -6271,7 +6271,7 @@
         <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
         <v>3583.51196363841</v>
@@ -6445,16 +6445,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F29" t="n">
         <v>894.2358041069906</v>
@@ -6472,13 +6472,13 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>2124.71495243113</v>
+        <v>1677.76186642996</v>
       </c>
       <c r="L29" t="n">
-        <v>3681.051378010443</v>
+        <v>2595.354589746543</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N29" t="n">
         <v>4728.273641396618</v>
@@ -6505,16 +6505,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="30">
@@ -6572,7 +6572,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6639,16 +6639,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N31" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O31" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P31" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q31" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R31" t="n">
         <v>239.3480243885944</v>
@@ -6685,13 +6685,13 @@
         <v>2578.759347546128</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F32" t="n">
         <v>894.2358041069906</v>
@@ -6709,22 +6709,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L32" t="n">
-        <v>2819.17922466306</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M32" t="n">
-        <v>3301.358424176563</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N32" t="n">
-        <v>3866.401488049235</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O32" t="n">
-        <v>4776.556370989979</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q32" t="n">
         <v>6931.116362236997</v>
@@ -6809,7 +6809,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S33" t="n">
         <v>5159.222422432123</v>
@@ -6840,25 +6840,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>239.3480243885944</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="C34" t="n">
-        <v>239.3480243885944</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="D34" t="n">
-        <v>239.3480243885944</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="E34" t="n">
-        <v>239.3480243885944</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="F34" t="n">
-        <v>239.3480243885944</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="G34" t="n">
-        <v>239.3480243885944</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="H34" t="n">
-        <v>239.3480243885944</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="I34" t="n">
         <v>140.96</v>
@@ -6876,40 +6876,40 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U34" t="n">
-        <v>239.3480243885944</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V34" t="n">
-        <v>239.3480243885944</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W34" t="n">
-        <v>239.3480243885944</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="X34" t="n">
-        <v>239.3480243885944</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="Y34" t="n">
-        <v>239.3480243885944</v>
+        <v>155.5035375626275</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
         <v>2126.146990020859</v>
@@ -6946,22 +6946,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M35" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q35" t="n">
         <v>6931.116362236997</v>
@@ -6985,10 +6985,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -7077,25 +7077,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
         <v>140.96</v>
@@ -7125,28 +7125,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="R37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
         <v>1303.215227044376</v>
@@ -7180,10 +7180,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>2550.716641651425</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L38" t="n">
         <v>3681.051378010443</v>
@@ -7283,19 +7283,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S39" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W39" t="n">
         <v>3503.082427021609</v>
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7347,43 +7347,43 @@
         <v>307.8416045893196</v>
       </c>
       <c r="M40" t="n">
-        <v>199.1066270176099</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N40" t="n">
-        <v>199.1066270176099</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O40" t="n">
-        <v>199.1066270176099</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P40" t="n">
-        <v>199.1066270176099</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q40" t="n">
-        <v>199.1066270176099</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="41">
@@ -7420,7 +7420,7 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K41" t="n">
-        <v>2153.765102156982</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L41" t="n">
         <v>3071.357825473565</v>
@@ -7520,7 +7520,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
         <v>5159.222422432123</v>
@@ -7605,13 +7605,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W43" t="n">
         <v>140.96</v>
@@ -7657,7 +7657,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L44" t="n">
         <v>3681.051378010443</v>
@@ -7687,16 +7687,16 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y44" t="n">
         <v>3067.029708403252</v>
@@ -7757,7 +7757,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
         <v>5159.222422432123</v>
@@ -7984,13 +7984,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>491.4928437002175</v>
+        <v>315.9139665186112</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8002,10 +8002,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8224,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>265.4073538855536</v>
       </c>
       <c r="L5" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8458,13 +8458,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K8" t="n">
-        <v>491.4928437002177</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>61.18810711406081</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>491.4928437002175</v>
+        <v>746.2187031047679</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8713,10 +8713,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R11" t="n">
         <v>294.54111633436</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>835.1386633165826</v>
+        <v>519.4191429811533</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>114.3520667231144</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9187,13 +9187,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>835.1386633165826</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9427,10 +9427,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>205.6211561225439</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,13 +9643,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>214.8909222650855</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>491.4928437002175</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>746.2187031047679</v>
+        <v>301.799730824009</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10120,16 +10120,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>265.4073538855536</v>
       </c>
       <c r="L29" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>491.4928437002175</v>
+        <v>29.34358558166878</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
         <v>294.54111633436</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>645.1956588512421</v>
+        <v>746.2187031047679</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R35" t="n">
         <v>294.54111633436</v>
@@ -10828,13 +10828,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
-        <v>214.8909222650855</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>315.9139665186112</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>835.1386633165826</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23481,7 +23481,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
         <v>226.3728098387097</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23569,7 +23569,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S18" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23955,7 +23955,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W19" t="n">
         <v>226.3728098387097</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S21" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24511,10 +24511,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="X26" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24879,7 +24879,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
-        <v>100.2122833319831</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O31" t="n">
         <v>268.0582198167198</v>
@@ -24891,7 +24891,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R31" t="n">
-        <v>608.1413738827905</v>
+        <v>540.3327294840725</v>
       </c>
       <c r="S31" t="n">
         <v>316.45975839138</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S33" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25101,7 +25101,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>83.00604195770715</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25116,7 +25116,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>100.2122833319831</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25137,7 +25137,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>199.1703102162162</v>
@@ -25162,70 +25162,70 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>1.38834429297799</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25335,10 +25335,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R37" t="n">
-        <v>540.3327294840725</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S37" t="n">
         <v>316.45975839138</v>
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25587,7 +25587,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
         <v>168.0209277307011</v>
@@ -25602,7 +25602,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R40" t="n">
-        <v>550.5762131353567</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S40" t="n">
         <v>316.45975839138</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U43" t="n">
         <v>150.8146863564251</v>
@@ -25854,7 +25854,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16812.76883547375</v>
+        <v>1391548.529551329</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33359.18696190735</v>
+        <v>2745378.847908867</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49905.60508834092</v>
+        <v>4099209.166266407</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68738.20278394976</v>
+        <v>5311855.334621574</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87570.80047955857</v>
+        <v>6524501.50297674</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106403.3981751674</v>
+        <v>7737147.671331897</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125235.9958707762</v>
+        <v>8949793.839687053</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144068.593566385</v>
+        <v>10162440.00804221</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162901.1912619938</v>
+        <v>11375086.17639736</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181733.7889576026</v>
+        <v>12587732.34475252</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200566.3866532114</v>
+        <v>13800378.51310768</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219398.9843488202</v>
+        <v>15013024.68146284</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238231.5820444292</v>
+        <v>16225670.84981802</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>257064.1797400383</v>
+        <v>17438317.0181732</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275896.7774356474</v>
+        <v>18650963.18652838</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245018</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="C2" t="n">
         <v>850079.5022245016</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.5022245015</v>
+        <v>850079.5022245016</v>
       </c>
       <c r="E2" t="n">
-        <v>761428.9894323124</v>
+        <v>761428.9894323122</v>
       </c>
       <c r="F2" t="n">
-        <v>761428.9894323124</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="G2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="H2" t="n">
         <v>761428.9894323123</v>
       </c>
       <c r="I2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="J2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="K2" t="n">
         <v>761428.9894323125</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>761428.9894323125</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>761428.9894323125</v>
+      </c>
+      <c r="N2" t="n">
         <v>761428.9894323123</v>
       </c>
-      <c r="L2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="M2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="N2" t="n">
-        <v>761428.9894323124</v>
-      </c>
       <c r="O2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323127</v>
       </c>
       <c r="P2" t="n">
-        <v>761428.9894323124</v>
+        <v>761428.9894323127</v>
       </c>
     </row>
     <row r="3">
@@ -26432,19 +26432,19 @@
         <v>113616.966226414</v>
       </c>
       <c r="E4" t="n">
-        <v>38928.93672769591</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="F4" t="n">
         <v>38928.93672769592</v>
       </c>
       <c r="G4" t="n">
+        <v>38928.93672769591</v>
+      </c>
+      <c r="H4" t="n">
+        <v>38928.9367276959</v>
+      </c>
+      <c r="I4" t="n">
         <v>38928.93672769592</v>
-      </c>
-      <c r="H4" t="n">
-        <v>38928.93672769592</v>
-      </c>
-      <c r="I4" t="n">
-        <v>38928.93672769591</v>
       </c>
       <c r="J4" t="n">
         <v>38928.93672769592</v>
@@ -26453,7 +26453,7 @@
         <v>38928.93672769592</v>
       </c>
       <c r="L4" t="n">
-        <v>38928.93672769591</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="M4" t="n">
         <v>38928.93672769592</v>
@@ -26527,49 +26527,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1481447.775726326</v>
+        <v>-1481447.775726327</v>
       </c>
       <c r="C6" t="n">
         <v>563553.1753281546</v>
       </c>
       <c r="D6" t="n">
-        <v>563855.5359980875</v>
+        <v>563855.5359980876</v>
       </c>
       <c r="E6" t="n">
-        <v>583520.6527046165</v>
+        <v>583520.6527046163</v>
       </c>
       <c r="F6" t="n">
-        <v>583520.6527046165</v>
+        <v>583520.6527046164</v>
       </c>
       <c r="G6" t="n">
-        <v>583520.6527046163</v>
+        <v>583520.6527046164</v>
       </c>
       <c r="H6" t="n">
         <v>583520.6527046164</v>
       </c>
       <c r="I6" t="n">
+        <v>583520.6527046164</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-36703.34729538357</v>
+      </c>
+      <c r="K6" t="n">
         <v>583520.6527046167</v>
       </c>
-      <c r="J6" t="n">
-        <v>-36703.34729538334</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>583520.6527046167</v>
+      </c>
+      <c r="M6" t="n">
+        <v>583520.6527046167</v>
+      </c>
+      <c r="N6" t="n">
         <v>583520.6527046164</v>
       </c>
-      <c r="L6" t="n">
-        <v>583520.6527046164</v>
-      </c>
-      <c r="M6" t="n">
-        <v>583520.6527046164</v>
-      </c>
-      <c r="N6" t="n">
-        <v>583520.6527046165</v>
-      </c>
       <c r="O6" t="n">
-        <v>583520.6527046164</v>
+        <v>583520.6527046168</v>
       </c>
       <c r="P6" t="n">
-        <v>583520.6527046165</v>
+        <v>583520.6527046168</v>
       </c>
     </row>
   </sheetData>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H3" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27690,7 +27690,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27702,13 +27702,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>168.0209277307011</v>
+        <v>187.2441835284046</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P4" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>400</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C7" t="n">
-        <v>311.004082966107</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D7" t="n">
         <v>285.5362180555555</v>
@@ -27939,7 +27939,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116848</v>
       </c>
       <c r="O7" t="n">
         <v>268.0582198167198</v>
@@ -27982,58 +27982,58 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.388344292978275</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28161,7 +28161,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0345329751544</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28173,7 +28173,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6476277959926</v>
+        <v>227.6188561872211</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
@@ -28182,7 +28182,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -28209,7 +28209,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y10" t="n">
-        <v>400</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="11">
@@ -34828,13 +34828,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K2" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
-        <v>1418.354180383635</v>
+        <v>1242.775303202028</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34846,10 +34846,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -34986,7 +34986,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>270.9678041454846</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
         <v>17.57070160869296</v>
@@ -34998,13 +34998,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P4" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35068,16 +35068,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.98940395526</v>
+        <v>1012.521640317714</v>
       </c>
       <c r="L5" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O5" t="n">
         <v>919.3483666068121</v>
@@ -35199,10 +35199,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.8861996629213</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>38.27883631806233</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -35235,7 +35235,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35302,13 +35302,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K8" t="n">
-        <v>1238.607130132378</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>926.8613366834172</v>
+        <v>988.049443797478</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35457,7 +35457,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>38.63038883044603</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>150.9965757542561</v>
@@ -35469,7 +35469,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35478,7 +35478,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35505,7 +35505,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>112.5346471505376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -35545,7 +35545,7 @@
         <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>1418.354180383635</v>
+        <v>1673.080039788185</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35557,10 +35557,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R11" t="n">
         <v>118.0642805686905</v>
@@ -35779,10 +35779,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>1762</v>
+        <v>1446.280479664571</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,7 +35791,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P14" t="n">
         <v>844.3104324216301</v>
@@ -36010,16 +36010,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>70.05686619102138</v>
       </c>
       <c r="J17" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36031,13 +36031,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36253,7 +36253,7 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L20" t="n">
         <v>1762</v>
@@ -36271,10 +36271,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>29.14432035687434</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36487,13 +36487,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>1141.752258948503</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36502,10 +36502,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>1410.84121030703</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
@@ -36730,10 +36730,10 @@
         <v>747.114286432161</v>
       </c>
       <c r="L26" t="n">
-        <v>1673.080039788185</v>
+        <v>1228.661067507426</v>
       </c>
       <c r="M26" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N26" t="n">
         <v>570.7505695683558</v>
@@ -36745,7 +36745,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36964,16 +36964,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.98940395526</v>
+        <v>1012.521640317714</v>
       </c>
       <c r="L29" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O29" t="n">
         <v>919.3483666068121</v>
@@ -37201,10 +37201,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L32" t="n">
-        <v>1418.354180383635</v>
+        <v>956.2049222650858</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37216,10 +37216,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
         <v>118.0642805686905</v>
@@ -37438,10 +37438,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>1572.05699553466</v>
+        <v>1673.080039788185</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37456,7 +37456,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R35" t="n">
         <v>118.0642805686905</v>
@@ -37672,13 +37672,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
         <v>1463.98940395526</v>
       </c>
       <c r="L38" t="n">
-        <v>1141.752258948503</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37912,10 +37912,10 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K41" t="n">
-        <v>1063.028252950772</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L41" t="n">
-        <v>926.861336683417</v>
+        <v>1242.775303202028</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -38149,10 +38149,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L44" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
